--- a/MembershipRanking/target/classes/TestCasesRobustness.xlsx
+++ b/MembershipRanking/target/classes/TestCasesRobustness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EEAE8AC8-557B-44C3-99FF-525091299FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D3327C70-E17E-46BE-8E74-6EBD40742ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{1D09411D-7106-40F4-A985-19C94DCC51B3}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
   <si>
     <t>Spending</t>
   </si>
@@ -44,13 +44,10 @@
     <t>Standard</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -454,7 +451,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -484,27 +481,27 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0">
         <v>500</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>4</v>
+      <c r="B3" s="0">
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>500</v>
@@ -516,15 +513,15 @@
         <v>6</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>4</v>
+      <c r="B4" s="0">
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>500</v>
@@ -536,75 +533,75 @@
         <v>6</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50000</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
+      <c r="B5" s="0">
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>99999</v>
       </c>
-      <c r="B6" s="2">
-        <v>4</v>
+      <c r="B6" s="0">
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100000</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
+      <c r="B7" s="0">
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>500</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100001</v>
       </c>
-      <c r="B8" s="2">
-        <v>4</v>
+      <c r="B8" s="0">
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
@@ -613,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,13 +627,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,13 +667,13 @@
         <v>500</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,7 +681,7 @@
         <v>50000</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>500</v>
@@ -693,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +701,7 @@
         <v>50000</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>500</v>
@@ -713,10 +710,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,7 +721,7 @@
         <v>50000</v>
       </c>
       <c r="B14" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>500</v>
@@ -733,10 +730,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,19 +741,19 @@
         <v>50000</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>-1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,7 +761,7 @@
         <v>50000</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -776,15 +773,15 @@
         <v>6</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>50000</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -796,55 +793,55 @@
         <v>6</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>50000</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>999</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>50000</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>1000</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>1001</v>
@@ -853,19 +850,19 @@
         <v>6</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
